--- a/WebRoot/download/batchUser.xlsx
+++ b/WebRoot/download/batchUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="16215" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>username</t>
+    <t>姓名</t>
   </si>
   <si>
-    <t>phone</t>
+    <t>电话</t>
   </si>
   <si>
-    <t>sex</t>
+    <t>性别</t>
   </si>
   <si>
-    <t>age</t>
+    <t>年龄</t>
   </si>
   <si>
     <t>张三</t>
@@ -54,11 +54,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,32 +67,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,22 +119,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,15 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,38 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,23 +163,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,37 +233,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,150 +389,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -414,11 +433,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,30 +486,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -473,15 +496,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +525,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -519,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -531,139 +578,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1016,7 +1072,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1026,77 +1082,78 @@
     <col min="4" max="4" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" ht="21" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" ht="17.25" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1237129837</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" ht="17.25" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>21378912739</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" ht="17.25" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>12987319</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" ht="17.25" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1246812894</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
